--- a/biology/Médecine/1652_en_santé_et_médecine/1652_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1652_en_santé_et_médecine/1652_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1652_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1652_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1652 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1652_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1652_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En France, en pleine crise de la Fronde et « avec un climat frais et humide […], persistance de la famine[1] ».
-En Sardaigne, la peste apportée à Alghero s'étend jusqu'à Sassari puis Cagliari. Elle persistera jusqu'en 1656[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En France, en pleine crise de la Fronde et « avec un climat frais et humide […], persistance de la famine ».
+En Sardaigne, la peste apportée à Alghero s'étend jusqu'à Sassari puis Cagliari. Elle persistera jusqu'en 1656.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1652_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1652_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jean Riolan le Jeune (1577-1657) publie ses Opuscula anatomica varia et nova[3],[4].
-Domenico Marchetti (1625-1688) publie son Anatomia, dans laquelle il soutient Harvey contre Riolan, et démontre, en présence de Thomas Bartholin, qu'un liquide injecté dans les artères passe dans les veines[5],[4].
-Nicholas Culpeper (1616 -1654) publie son English Physitian, traité d'herboristerie rédigé selon les principes de l'astrologie médicale[6],[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jean Riolan le Jeune (1577-1657) publie ses Opuscula anatomica varia et nova,.
+Domenico Marchetti (1625-1688) publie son Anatomia, dans laquelle il soutient Harvey contre Riolan, et démontre, en présence de Thomas Bartholin, qu'un liquide injecté dans les artères passe dans les veines,.
+Nicholas Culpeper (1616 -1654) publie son English Physitian, traité d'herboristerie rédigé selon les principes de l'astrologie médicale,.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1652_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1652_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,11 +590,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3 janvier : Guillaume Homberg (mort en 1715), médecin et chimiste néerlandais, découvreur du sel sédatif de Homberg (l'acide borique), et du phosphore de Homberg, un chlorure de calcium luminescent[8].
-4 février : Daniel Le Clerc (mort en 1728), médecin et personnalité politique suisse, pionnier de l'histoire de la médecine[9],[10].
-25 décembre : Archibald Pitcairne (mort en 1713), médecin écossais[11],[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3 janvier : Guillaume Homberg (mort en 1715), médecin et chimiste néerlandais, découvreur du sel sédatif de Homberg (l'acide borique), et du phosphore de Homberg, un chlorure de calcium luminescent.
+4 février : Daniel Le Clerc (mort en 1728), médecin et personnalité politique suisse, pionnier de l'histoire de la médecine,.
+25 décembre : Archibald Pitcairne (mort en 1713), médecin écossais,.
 John Radcliffe (mort en 1714), médecin anglais.</t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1652_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1652_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>21 novembre : Jan Brożek (né en 1585), mathématicien, astronome, médecin, poète, écrivain et musicien polonais.
 François Vautier (né en 1589), médecin et botaniste français.</t>
